--- a/02-2018_Dining_Utility_Summary.xlsx
+++ b/02-2018_Dining_Utility_Summary.xlsx
@@ -1253,9 +1253,9 @@
   <cellStyleXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="43"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="175"/>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0"/>
     <xf borderId="9" fillId="0" fontId="22" numFmtId="0"/>
@@ -1299,7 +1299,7 @@
     <xf borderId="0" fillId="35" fontId="36" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="16" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0"/>
@@ -1317,7 +1317,7 @@
     <xf borderId="0" fillId="34" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="16" fillId="11" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="43"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="16" fillId="11" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="175"/>
   </cellStyleXfs>
@@ -2687,7 +2687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K312"/>
+  <dimension ref="A1:J312"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="E62" sqref="E62"/>
@@ -2704,15 +2704,15 @@
     <col customWidth="1" max="9" min="9" style="146" width="18.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="146" spans="1:11">
+    <row customHeight="1" ht="15.75" r="1" s="146" spans="1:10">
       <c r="A1" s="31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="2" s="146" spans="1:11">
+    <row customHeight="1" ht="18" r="2" s="146" spans="1:10">
       <c r="A2" s="10" t="n"/>
     </row>
-    <row customHeight="1" ht="25.5" r="3" s="146" spans="1:11">
+    <row customHeight="1" ht="25.5" r="3" s="146" spans="1:10">
       <c r="A3" s="32" t="s">
         <v>57</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="240" t="s">
         <v>132</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="298" t="n"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:10">
       <c r="B5" s="6" t="s">
         <v>110</v>
       </c>
@@ -2758,7 +2758,7 @@
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="298" t="n"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="B6" s="6" t="s">
         <v>112</v>
       </c>
@@ -2768,7 +2768,7 @@
       <c r="F6" s="13" t="n"/>
       <c r="G6" s="298" t="n"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="B7" s="6" t="s">
         <v>114</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="I8" s="17" t="n"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:10">
       <c r="B9" s="6" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="I9" s="23" t="n"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:10">
       <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="I10" s="24" t="n"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:10">
       <c r="B11" s="6" t="s">
         <v>119</v>
       </c>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I11" s="24" t="n"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="B12" s="6" t="s">
         <v>120</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="B13" s="6" t="s">
         <v>121</v>
       </c>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="I13" s="18" t="n"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="B14" s="6" t="s">
         <v>122</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="B15" s="6" t="s">
         <v>123</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:10">
       <c r="A16" s="240" t="s">
         <v>133</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="298" t="n"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:10">
       <c r="B17" s="6" t="s">
         <v>110</v>
       </c>
@@ -2990,7 +2990,7 @@
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="298" t="n"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="B18" s="6" t="s">
         <v>112</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="298" t="n"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:10">
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:10">
       <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="I20" s="305" t="n"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:10">
       <c r="B21" s="6" t="s">
         <v>117</v>
       </c>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="I21" s="17" t="n"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:10">
       <c r="B22" s="6" t="s">
         <v>118</v>
       </c>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="I22" s="22" t="n"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:10">
       <c r="B23" s="6" t="s">
         <v>119</v>
       </c>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="I23" s="11" t="n"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:10">
       <c r="B24" s="6" t="s">
         <v>120</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="I24" s="22" t="n"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:10">
       <c r="B25" s="6" t="s">
         <v>121</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="I25" s="18" t="n"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:10">
       <c r="B26" s="6" t="s">
         <v>122</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:10">
       <c r="B27" s="6" t="s">
         <v>123</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:10">
       <c r="A28" s="240" t="s">
         <v>135</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="F28" s="13" t="n"/>
       <c r="G28" s="298" t="n"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:10">
       <c r="B29" s="6" t="s">
         <v>110</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="F29" s="13" t="n"/>
       <c r="G29" s="298" t="n"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:10">
       <c r="B30" s="6" t="s">
         <v>112</v>
       </c>
@@ -3236,7 +3236,7 @@
       <c r="F30" s="13" t="n"/>
       <c r="G30" s="298" t="n"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:10">
       <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:10">
       <c r="B32" s="6" t="s">
         <v>116</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:10">
       <c r="B33" s="6" t="s">
         <v>117</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:10">
       <c r="B34" s="6" t="s">
         <v>118</v>
       </c>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="I34" s="18" t="n"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:10">
       <c r="B35" s="6" t="s">
         <v>119</v>
       </c>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="I35" s="11" t="n"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:10">
       <c r="B36" s="6" t="s">
         <v>120</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="I36" s="22" t="n"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:10">
       <c r="B37" s="6" t="s">
         <v>121</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="I37" s="17" t="n"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:10">
       <c r="B38" s="6" t="s">
         <v>122</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="I38" s="18" t="n"/>
       <c r="J38" s="18" t="n"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="B39" s="6" t="s">
         <v>123</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:10">
       <c r="A40" s="240" t="s">
         <v>136</v>
       </c>
@@ -3452,7 +3452,7 @@
       <c r="F40" s="13" t="n"/>
       <c r="G40" s="298" t="n"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:10">
       <c r="B41" s="6" t="s">
         <v>110</v>
       </c>
@@ -3462,7 +3462,7 @@
       <c r="F41" s="13" t="n"/>
       <c r="G41" s="298" t="n"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:10">
       <c r="B42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="F42" s="13" t="n"/>
       <c r="G42" s="298" t="n"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:10">
       <c r="B43" s="6" t="s">
         <v>114</v>
       </c>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="I43" s="18" t="n"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:10">
       <c r="B44" s="6" t="s">
         <v>116</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:10">
       <c r="B45" s="6" t="s">
         <v>117</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:10">
       <c r="B46" s="6" t="s">
         <v>118</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:10">
       <c r="B47" s="6" t="s">
         <v>119</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:10">
       <c r="B48" s="6" t="s">
         <v>120</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:10">
       <c r="B49" s="6" t="s">
         <v>121</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:10">
       <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:10">
       <c r="B51" s="6" t="s">
         <v>123</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:10">
       <c r="A52" s="240" t="s">
         <v>137</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="F52" s="13" t="n"/>
       <c r="G52" s="298" t="n"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:10">
       <c r="B53" s="6" t="s">
         <v>110</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="F53" s="13" t="n"/>
       <c r="G53" s="298" t="n"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:10">
       <c r="B54" s="6" t="s">
         <v>112</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="F54" s="13" t="n"/>
       <c r="G54" s="298" t="n"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:10">
       <c r="B55" s="6" t="s">
         <v>114</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:10">
       <c r="B56" s="6" t="s">
         <v>116</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:10">
       <c r="B57" s="6" t="s">
         <v>117</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:10">
       <c r="B58" s="6" t="s">
         <v>118</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:10">
       <c r="B59" s="6" t="s">
         <v>119</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:10">
       <c r="B60" s="6" t="s">
         <v>120</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:10">
       <c r="B61" s="6" t="s">
         <v>121</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:10">
       <c r="B62" s="6" t="s">
         <v>122</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:10">
       <c r="B63" s="6" t="s">
         <v>123</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:10">
       <c r="A64" s="240" t="s">
         <v>138</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="F64" s="13" t="n"/>
       <c r="G64" s="298" t="n"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:10">
       <c r="B65" s="6" t="s">
         <v>110</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="F65" s="13" t="n"/>
       <c r="G65" s="298" t="n"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:10">
       <c r="B66" s="6" t="s">
         <v>112</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="F66" s="13" t="n"/>
       <c r="G66" s="298" t="n"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:10">
       <c r="B67" s="6" t="s">
         <v>114</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:10">
       <c r="B68" s="6" t="s">
         <v>116</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:10">
       <c r="B69" s="6" t="s">
         <v>117</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:10">
       <c r="B70" s="6" t="s">
         <v>118</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:10">
       <c r="B71" s="6" t="s">
         <v>119</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:10">
       <c r="B72" s="6" t="s">
         <v>120</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:10">
       <c r="B73" s="6" t="s">
         <v>121</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:10">
       <c r="B74" s="6" t="s">
         <v>122</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:10">
       <c r="B75" s="6" t="s">
         <v>123</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:10">
       <c r="A76" s="240" t="s">
         <v>139</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="F76" s="13" t="n"/>
       <c r="G76" s="298" t="n"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:10">
       <c r="B77" s="6" t="s">
         <v>110</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="F77" s="13" t="n"/>
       <c r="G77" s="298" t="n"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:10">
       <c r="B78" s="6" t="s">
         <v>112</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="F78" s="13" t="n"/>
       <c r="G78" s="298" t="n"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:10">
       <c r="B79" s="6" t="s">
         <v>114</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:10">
       <c r="B80" s="6" t="s">
         <v>116</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:10">
       <c r="B81" s="6" t="s">
         <v>117</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:10">
       <c r="B82" s="6" t="s">
         <v>118</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:10">
       <c r="B83" s="6" t="s">
         <v>119</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:10">
       <c r="B84" s="6" t="s">
         <v>120</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:10">
       <c r="B85" s="6" t="s">
         <v>121</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:10">
       <c r="B86" s="6" t="s">
         <v>122</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:10">
       <c r="B87" s="6" t="s">
         <v>123</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:10">
       <c r="A88" s="240" t="s">
         <v>140</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="F88" s="13" t="n"/>
       <c r="G88" s="298" t="n"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:10">
       <c r="B89" s="6" t="s">
         <v>110</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="F89" s="13" t="n"/>
       <c r="G89" s="298" t="n"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:10">
       <c r="B90" s="6" t="s">
         <v>112</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="F90" s="4" t="n"/>
       <c r="G90" s="298" t="n"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:10">
       <c r="B91" s="6" t="s">
         <v>114</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:10">
       <c r="B92" s="6" t="s">
         <v>116</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:10">
       <c r="B93" s="6" t="s">
         <v>117</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:10">
       <c r="B94" s="6" t="s">
         <v>118</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:10">
       <c r="B95" s="6" t="s">
         <v>119</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:10">
       <c r="B96" s="6" t="s">
         <v>120</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:10">
       <c r="B97" s="6" t="s">
         <v>121</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:10">
       <c r="B98" s="6" t="s">
         <v>122</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:10">
       <c r="B99" s="6" t="s">
         <v>123</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:10">
       <c r="A100" s="240" t="s">
         <v>141</v>
       </c>
@@ -4517,7 +4517,7 @@
       <c r="F100" s="13" t="n"/>
       <c r="G100" s="298" t="n"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:10">
       <c r="B101" s="6" t="s">
         <v>110</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="F101" s="13" t="n"/>
       <c r="G101" s="298" t="n"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:10">
       <c r="B102" s="6" t="s">
         <v>112</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="F102" s="13" t="n"/>
       <c r="G102" s="298" t="n"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:10">
       <c r="B103" s="6" t="s">
         <v>114</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:10">
       <c r="B104" s="6" t="s">
         <v>116</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:10">
       <c r="B105" s="6" t="s">
         <v>117</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:10">
       <c r="B106" s="6" t="s">
         <v>118</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:10">
       <c r="B107" s="6" t="s">
         <v>119</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:10">
       <c r="B108" s="6" t="s">
         <v>120</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:10">
       <c r="B109" s="6" t="s">
         <v>121</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:10">
       <c r="B110" s="6" t="s">
         <v>122</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:10">
       <c r="B111" s="6" t="s">
         <v>123</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:10">
       <c r="A112" s="240" t="s">
         <v>142</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="F112" s="13" t="n"/>
       <c r="G112" s="298" t="n"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:10">
       <c r="B113" s="6" t="s">
         <v>110</v>
       </c>
@@ -4759,7 +4759,7 @@
       <c r="F113" s="13" t="n"/>
       <c r="G113" s="298" t="n"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:10">
       <c r="B114" s="6" t="s">
         <v>112</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="F114" s="13" t="n"/>
       <c r="G114" s="298" t="n"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:10">
       <c r="B115" s="6" t="s">
         <v>114</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:10">
       <c r="B116" s="6" t="s">
         <v>116</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:10">
       <c r="B117" s="6" t="s">
         <v>117</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:10">
       <c r="B118" s="6" t="s">
         <v>118</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:10">
       <c r="B119" s="6" t="s">
         <v>119</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:10">
       <c r="B120" s="6" t="s">
         <v>120</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:10">
       <c r="B121" s="6" t="s">
         <v>121</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:10">
       <c r="B122" s="6" t="s">
         <v>122</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:10">
       <c r="B123" s="6" t="s">
         <v>123</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:10">
       <c r="A124" s="240" t="s">
         <v>143</v>
       </c>
@@ -4957,7 +4957,7 @@
       <c r="F124" s="13" t="n"/>
       <c r="G124" s="298" t="n"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:10">
       <c r="B125" s="6" t="s">
         <v>110</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="F125" s="13" t="n"/>
       <c r="G125" s="298" t="n"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:10">
       <c r="B126" s="6" t="s">
         <v>112</v>
       </c>
@@ -4977,7 +4977,7 @@
       <c r="F126" s="13" t="n"/>
       <c r="G126" s="298" t="n"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:10">
       <c r="B127" s="6" t="s">
         <v>114</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:10">
       <c r="B128" s="6" t="s">
         <v>116</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:10">
       <c r="B129" s="6" t="s">
         <v>117</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:10">
       <c r="B130" s="6" t="s">
         <v>118</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:10">
       <c r="B131" s="6" t="s">
         <v>119</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:10">
       <c r="B132" s="6" t="s">
         <v>120</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:10">
       <c r="B133" s="6" t="s">
         <v>121</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:10">
       <c r="B134" s="6" t="s">
         <v>122</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:10">
       <c r="B135" s="6" t="s">
         <v>123</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:10">
       <c r="A136" s="45" t="n"/>
       <c r="B136" s="54" t="n"/>
       <c r="C136" s="54" t="n"/>
@@ -5162,7 +5162,7 @@
       <c r="G136" s="305" t="n"/>
       <c r="H136" s="295" t="n"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:10">
       <c r="A137" s="8" t="s">
         <v>19</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="F137" s="54" t="n"/>
       <c r="G137" s="305" t="n"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:10">
       <c r="A138" s="8" t="s">
         <v>65</v>
       </c>
@@ -5184,7 +5184,7 @@
       <c r="F138" s="54" t="n"/>
       <c r="G138" s="54" t="n"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:10">
       <c r="A139" s="45" t="s">
         <v>66</v>
       </c>
@@ -5195,7 +5195,7 @@
       <c r="F139" s="54" t="n"/>
       <c r="G139" s="54" t="n"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:10">
       <c r="A140" s="45" t="s">
         <v>24</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="F140" s="54" t="n"/>
       <c r="G140" s="54" t="n"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:10">
       <c r="A141" s="45" t="s">
         <v>25</v>
       </c>
@@ -5217,7 +5217,7 @@
       <c r="F141" s="54" t="n"/>
       <c r="G141" s="54" t="n"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:10">
       <c r="A142" s="45" t="n"/>
       <c r="B142" s="205" t="n"/>
       <c r="C142" s="54" t="n"/>
@@ -5226,7 +5226,7 @@
       <c r="F142" s="54" t="n"/>
       <c r="G142" s="54" t="n"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:10">
       <c r="A143" s="45" t="n"/>
       <c r="B143" s="205" t="n"/>
       <c r="C143" s="54" t="n"/>
@@ -5235,679 +5235,679 @@
       <c r="F143" s="54" t="n"/>
       <c r="G143" s="54" t="n"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:10">
       <c r="A144" s="45" t="n"/>
       <c r="B144" s="205" t="n"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:10">
       <c r="A145" s="45" t="n"/>
       <c r="B145" s="205" t="n"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:10">
       <c r="A146" s="45" t="n"/>
       <c r="B146" s="205" t="n"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:10">
       <c r="A147" s="45" t="n"/>
       <c r="B147" s="205" t="n"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:10">
       <c r="A148" s="45" t="n"/>
       <c r="B148" s="205" t="n"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:10">
       <c r="A149" s="45" t="n"/>
       <c r="B149" s="205" t="n"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:10">
       <c r="A150" s="45" t="n"/>
       <c r="B150" s="205" t="n"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:10">
       <c r="A151" s="45" t="n"/>
       <c r="B151" s="205" t="n"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:10">
       <c r="A152" s="45" t="n"/>
       <c r="B152" s="205" t="n"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:10">
       <c r="A153" s="45" t="n"/>
       <c r="B153" s="205" t="n"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:10">
       <c r="A154" s="45" t="n"/>
       <c r="B154" s="205" t="n"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:10">
       <c r="A155" s="45" t="n"/>
       <c r="B155" s="205" t="n"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:10">
       <c r="A156" s="45" t="n"/>
       <c r="B156" s="205" t="n"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:10">
       <c r="A157" s="45" t="n"/>
       <c r="B157" s="205" t="n"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:10">
       <c r="A158" s="45" t="n"/>
       <c r="B158" s="205" t="n"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:10">
       <c r="A159" s="45" t="n"/>
       <c r="B159" s="205" t="n"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:10">
       <c r="A160" s="45" t="n"/>
       <c r="B160" s="205" t="n"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:10">
       <c r="A161" s="45" t="n"/>
       <c r="B161" s="205" t="n"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:10">
       <c r="A162" s="45" t="n"/>
       <c r="B162" s="205" t="n"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:10">
       <c r="A163" s="45" t="n"/>
       <c r="B163" s="205" t="n"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:10">
       <c r="A164" s="45" t="n"/>
       <c r="B164" s="205" t="n"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:10">
       <c r="A165" s="45" t="n"/>
       <c r="B165" s="205" t="n"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:10">
       <c r="A166" s="45" t="n"/>
       <c r="B166" s="205" t="n"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:10">
       <c r="A167" s="45" t="n"/>
       <c r="B167" s="205" t="n"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:10">
       <c r="A168" s="45" t="n"/>
       <c r="B168" s="205" t="n"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:10">
       <c r="A169" s="45" t="n"/>
       <c r="B169" s="205" t="n"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:10">
       <c r="A170" s="45" t="n"/>
       <c r="B170" s="205" t="n"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:10">
       <c r="A171" s="45" t="n"/>
       <c r="B171" s="205" t="n"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:10">
       <c r="A172" s="45" t="n"/>
       <c r="B172" s="205" t="n"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:10">
       <c r="A173" s="45" t="n"/>
       <c r="B173" s="205" t="n"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:10">
       <c r="A174" s="45" t="n"/>
       <c r="B174" s="205" t="n"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:10">
       <c r="A175" s="45" t="n"/>
       <c r="B175" s="205" t="n"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:10">
       <c r="A176" s="45" t="n"/>
       <c r="B176" s="205" t="n"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:10">
       <c r="A177" s="45" t="n"/>
       <c r="B177" s="205" t="n"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:10">
       <c r="A178" s="45" t="n"/>
       <c r="B178" s="205" t="n"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:10">
       <c r="A179" s="45" t="n"/>
       <c r="B179" s="205" t="n"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:10">
       <c r="A180" s="45" t="n"/>
       <c r="B180" s="205" t="n"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:10">
       <c r="A181" s="45" t="n"/>
       <c r="B181" s="205" t="n"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:10">
       <c r="A182" s="45" t="n"/>
       <c r="B182" s="205" t="n"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:10">
       <c r="A183" s="45" t="n"/>
       <c r="B183" s="205" t="n"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:10">
       <c r="A184" s="45" t="n"/>
       <c r="B184" s="205" t="n"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:10">
       <c r="A185" s="45" t="n"/>
       <c r="B185" s="205" t="n"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:10">
       <c r="A186" s="45" t="n"/>
       <c r="B186" s="205" t="n"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:10">
       <c r="A187" s="45" t="n"/>
       <c r="B187" s="205" t="n"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:10">
       <c r="A188" s="45" t="n"/>
       <c r="B188" s="205" t="n"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:10">
       <c r="A189" s="45" t="n"/>
       <c r="B189" s="205" t="n"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:10">
       <c r="A190" s="45" t="n"/>
       <c r="B190" s="205" t="n"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:10">
       <c r="A191" s="45" t="n"/>
       <c r="B191" s="205" t="n"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:10">
       <c r="A192" s="45" t="n"/>
       <c r="B192" s="205" t="n"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:10">
       <c r="A193" s="45" t="n"/>
       <c r="B193" s="205" t="n"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:10">
       <c r="A194" s="45" t="n"/>
       <c r="B194" s="205" t="n"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:10">
       <c r="A195" s="45" t="n"/>
       <c r="B195" s="205" t="n"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:10">
       <c r="A196" s="45" t="n"/>
       <c r="B196" s="205" t="n"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:10">
       <c r="A197" s="45" t="n"/>
       <c r="B197" s="205" t="n"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:10">
       <c r="A198" s="45" t="n"/>
       <c r="B198" s="205" t="n"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:10">
       <c r="A199" s="45" t="n"/>
       <c r="B199" s="205" t="n"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:10">
       <c r="A200" s="45" t="n"/>
       <c r="B200" s="205" t="n"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:10">
       <c r="A201" s="45" t="n"/>
       <c r="B201" s="205" t="n"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:10">
       <c r="A202" s="45" t="n"/>
       <c r="B202" s="205" t="n"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:10">
       <c r="A203" s="45" t="n"/>
       <c r="B203" s="205" t="n"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:10">
       <c r="A204" s="45" t="n"/>
       <c r="B204" s="205" t="n"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:10">
       <c r="A205" s="45" t="n"/>
       <c r="B205" s="205" t="n"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:10">
       <c r="A206" s="45" t="n"/>
       <c r="B206" s="205" t="n"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:10">
       <c r="A207" s="45" t="n"/>
       <c r="B207" s="205" t="n"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:10">
       <c r="A208" s="45" t="n"/>
       <c r="B208" s="205" t="n"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:10">
       <c r="A209" s="45" t="n"/>
       <c r="B209" s="205" t="n"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:10">
       <c r="A210" s="45" t="n"/>
       <c r="B210" s="205" t="n"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:10">
       <c r="A211" s="45" t="n"/>
       <c r="B211" s="205" t="n"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:10">
       <c r="A212" s="45" t="n"/>
       <c r="B212" s="205" t="n"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:10">
       <c r="A213" s="45" t="n"/>
       <c r="B213" s="205" t="n"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:10">
       <c r="A214" s="45" t="n"/>
       <c r="B214" s="205" t="n"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:10">
       <c r="A215" s="45" t="n"/>
       <c r="B215" s="205" t="n"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:10">
       <c r="A216" s="45" t="n"/>
       <c r="B216" s="205" t="n"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:10">
       <c r="A217" s="45" t="n"/>
       <c r="B217" s="205" t="n"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:10">
       <c r="A218" s="45" t="n"/>
       <c r="B218" s="205" t="n"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:10">
       <c r="A219" s="45" t="n"/>
       <c r="B219" s="205" t="n"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:10">
       <c r="A220" s="45" t="n"/>
       <c r="B220" s="205" t="n"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:10">
       <c r="A221" s="45" t="n"/>
       <c r="B221" s="205" t="n"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:10">
       <c r="A222" s="45" t="n"/>
       <c r="B222" s="205" t="n"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:10">
       <c r="A223" s="45" t="n"/>
       <c r="B223" s="205" t="n"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:10">
       <c r="A224" s="45" t="n"/>
       <c r="B224" s="205" t="n"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:10">
       <c r="A225" s="45" t="n"/>
       <c r="B225" s="205" t="n"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:10">
       <c r="A226" s="45" t="n"/>
       <c r="B226" s="205" t="n"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:10">
       <c r="A227" s="45" t="n"/>
       <c r="B227" s="205" t="n"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:10">
       <c r="A228" s="45" t="n"/>
       <c r="B228" s="205" t="n"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:10">
       <c r="A229" s="45" t="n"/>
       <c r="B229" s="205" t="n"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:10">
       <c r="A230" s="45" t="n"/>
       <c r="B230" s="205" t="n"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:10">
       <c r="A231" s="45" t="n"/>
       <c r="B231" s="205" t="n"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:10">
       <c r="A232" s="45" t="n"/>
       <c r="B232" s="205" t="n"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:10">
       <c r="A233" s="45" t="n"/>
       <c r="B233" s="205" t="n"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:10">
       <c r="A234" s="45" t="n"/>
       <c r="B234" s="205" t="n"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:10">
       <c r="A235" s="45" t="n"/>
       <c r="B235" s="205" t="n"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:10">
       <c r="A236" s="45" t="n"/>
       <c r="B236" s="205" t="n"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:10">
       <c r="A237" s="45" t="n"/>
       <c r="B237" s="205" t="n"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:10">
       <c r="A238" s="45" t="n"/>
       <c r="B238" s="205" t="n"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:10">
       <c r="A239" s="45" t="n"/>
       <c r="B239" s="205" t="n"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:10">
       <c r="A240" s="45" t="n"/>
       <c r="B240" s="205" t="n"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:10">
       <c r="A241" s="45" t="n"/>
       <c r="B241" s="205" t="n"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:10">
       <c r="A242" s="45" t="n"/>
       <c r="B242" s="205" t="n"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:10">
       <c r="A243" s="45" t="n"/>
       <c r="B243" s="205" t="n"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:10">
       <c r="A244" s="45" t="n"/>
       <c r="B244" s="205" t="n"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:10">
       <c r="A245" s="45" t="n"/>
       <c r="B245" s="205" t="n"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:10">
       <c r="A246" s="45" t="n"/>
       <c r="B246" s="205" t="n"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:10">
       <c r="A247" s="45" t="n"/>
       <c r="B247" s="205" t="n"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:10">
       <c r="A248" s="45" t="n"/>
       <c r="B248" s="205" t="n"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:10">
       <c r="A249" s="45" t="n"/>
       <c r="B249" s="205" t="n"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:10">
       <c r="A250" s="45" t="n"/>
       <c r="B250" s="205" t="n"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:10">
       <c r="A251" s="45" t="n"/>
       <c r="B251" s="205" t="n"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:10">
       <c r="A252" s="45" t="n"/>
       <c r="B252" s="205" t="n"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:10">
       <c r="A253" s="45" t="n"/>
       <c r="B253" s="205" t="n"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:10">
       <c r="A254" s="45" t="n"/>
       <c r="B254" s="205" t="n"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:10">
       <c r="A255" s="45" t="n"/>
       <c r="B255" s="205" t="n"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:10">
       <c r="A256" s="45" t="n"/>
       <c r="B256" s="205" t="n"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:10">
       <c r="A257" s="45" t="n"/>
       <c r="B257" s="205" t="n"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:10">
       <c r="A258" s="45" t="n"/>
       <c r="B258" s="205" t="n"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:10">
       <c r="A259" s="45" t="n"/>
       <c r="B259" s="205" t="n"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:10">
       <c r="A260" s="45" t="n"/>
       <c r="B260" s="205" t="n"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:10">
       <c r="A261" s="45" t="n"/>
       <c r="B261" s="205" t="n"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:10">
       <c r="A262" s="45" t="n"/>
       <c r="B262" s="205" t="n"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:10">
       <c r="A263" s="45" t="n"/>
       <c r="B263" s="205" t="n"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:10">
       <c r="A264" s="45" t="n"/>
       <c r="B264" s="205" t="n"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:10">
       <c r="A265" s="45" t="n"/>
       <c r="B265" s="205" t="n"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:10">
       <c r="A266" s="45" t="n"/>
       <c r="B266" s="205" t="n"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:10">
       <c r="A267" s="45" t="n"/>
       <c r="B267" s="205" t="n"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:10">
       <c r="A268" s="45" t="n"/>
       <c r="B268" s="205" t="n"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:10">
       <c r="A269" s="45" t="n"/>
       <c r="B269" s="205" t="n"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:10">
       <c r="A270" s="45" t="n"/>
       <c r="B270" s="205" t="n"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:10">
       <c r="A271" s="45" t="n"/>
       <c r="B271" s="205" t="n"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:10">
       <c r="A272" s="45" t="n"/>
       <c r="B272" s="205" t="n"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:10">
       <c r="A273" s="45" t="n"/>
       <c r="B273" s="205" t="n"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:10">
       <c r="A274" s="45" t="n"/>
       <c r="B274" s="205" t="n"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:10">
       <c r="A275" s="45" t="n"/>
       <c r="B275" s="205" t="n"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:10">
       <c r="A276" s="45" t="n"/>
       <c r="B276" s="205" t="n"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:10">
       <c r="A277" s="45" t="n"/>
       <c r="B277" s="205" t="n"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:10">
       <c r="A278" s="45" t="n"/>
       <c r="B278" s="205" t="n"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:10">
       <c r="A279" s="45" t="n"/>
       <c r="B279" s="205" t="n"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:10">
       <c r="A280" s="45" t="n"/>
       <c r="B280" s="205" t="n"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:10">
       <c r="A281" s="45" t="n"/>
       <c r="B281" s="205" t="n"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:10">
       <c r="A282" s="45" t="n"/>
       <c r="B282" s="205" t="n"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:10">
       <c r="A283" s="45" t="n"/>
       <c r="B283" s="205" t="n"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:10">
       <c r="A284" s="45" t="n"/>
       <c r="B284" s="205" t="n"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:10">
       <c r="A285" s="45" t="n"/>
       <c r="B285" s="205" t="n"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:10">
       <c r="A286" s="45" t="n"/>
       <c r="B286" s="205" t="n"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:10">
       <c r="A287" s="45" t="n"/>
       <c r="B287" s="205" t="n"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:10">
       <c r="A288" s="45" t="n"/>
       <c r="B288" s="205" t="n"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:10">
       <c r="A289" s="45" t="n"/>
       <c r="B289" s="205" t="n"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:10">
       <c r="A290" s="45" t="n"/>
       <c r="B290" s="205" t="n"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:10">
       <c r="A291" s="45" t="n"/>
       <c r="B291" s="205" t="n"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:10">
       <c r="A292" s="45" t="n"/>
       <c r="B292" s="205" t="n"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:10">
       <c r="A293" s="45" t="n"/>
       <c r="B293" s="205" t="n"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:10">
       <c r="A294" s="45" t="n"/>
       <c r="B294" s="205" t="n"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:10">
       <c r="A295" s="45" t="n"/>
       <c r="B295" s="205" t="n"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:10">
       <c r="A296" s="45" t="n"/>
       <c r="B296" s="205" t="n"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:10">
       <c r="A297" s="45" t="n"/>
       <c r="B297" s="205" t="n"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:10">
       <c r="A298" s="45" t="n"/>
       <c r="B298" s="205" t="n"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:10">
       <c r="A299" s="45" t="n"/>
       <c r="B299" s="205" t="n"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:10">
       <c r="A300" s="45" t="n"/>
       <c r="B300" s="205" t="n"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:10">
       <c r="A301" s="45" t="n"/>
       <c r="B301" s="205" t="n"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:10">
       <c r="A302" s="45" t="n"/>
       <c r="B302" s="205" t="n"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:10">
       <c r="A303" s="45" t="n"/>
       <c r="B303" s="205" t="n"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:10">
       <c r="A304" s="45" t="n"/>
       <c r="B304" s="205" t="n"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:10">
       <c r="A305" s="45" t="n"/>
       <c r="B305" s="205" t="n"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:10">
       <c r="A306" s="45" t="n"/>
       <c r="B306" s="205" t="n"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:10">
       <c r="A307" s="45" t="n"/>
       <c r="B307" s="205" t="n"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:10">
       <c r="A308" s="45" t="n"/>
       <c r="B308" s="205" t="n"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:10">
       <c r="A309" s="45" t="n"/>
       <c r="B309" s="205" t="n"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:10">
       <c r="A310" s="45" t="n"/>
       <c r="B310" s="205" t="n"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:10">
       <c r="A311" s="45" t="n"/>
       <c r="B311" s="205" t="n"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:10">
       <c r="A312" s="45" t="n"/>
       <c r="B312" s="205" t="n"/>
     </row>
@@ -6204,11 +6204,11 @@
         <v/>
       </c>
       <c r="I7" s="224">
-        <f>480.215/(361/2976)</f>
+        <f>112.656666996305/(96/2976)</f>
         <v/>
       </c>
       <c r="J7" s="224">
-        <f>3374/(2688/2688)</f>
+        <f>112.656666996305/(96/2976)</f>
         <v/>
       </c>
       <c r="K7" s="224">
@@ -8071,11 +8071,11 @@
         <v/>
       </c>
       <c r="I5" s="262">
-        <f>(114810.28+126949.47+14854.14+1506.62)/(1684658+97143)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="J5" s="263">
-        <f>(122407.06+27007.58+107322.26+1506.62)/(1574771+0+176624)</f>
+        <f>(113103.55+28873.02+28325.35+126543.13)/(1654490+5411+185242)</f>
         <v/>
       </c>
       <c r="K5" s="261">
@@ -8169,11 +8169,11 @@
         <v/>
       </c>
       <c r="I8" s="224">
-        <f>2719.5/(361/2976)</f>
+        <f>559.5/(96/2976)</f>
         <v/>
       </c>
       <c r="J8" s="224">
-        <f>19080/(2688/2688)</f>
+        <f>559.5/(96/2976)</f>
         <v/>
       </c>
       <c r="K8" s="224">
@@ -8314,11 +8314,11 @@
         <v/>
       </c>
       <c r="I11" s="224">
-        <f>7590.84/(361/2976)</f>
+        <f>48701.7226710319/(2955/2976)</f>
         <v/>
       </c>
       <c r="J11" s="224">
-        <f>52563.02458/(2688/2688)</f>
+        <f>48701.7226710319/(2955/2976)</f>
         <v/>
       </c>
       <c r="K11" s="224">
@@ -8871,11 +8871,11 @@
       <c r="H7" s="157" t="n">
         <v>70901</v>
       </c>
-      <c r="I7" s="122" t="n">
-        <v>74582</v>
-      </c>
-      <c r="J7" s="157" t="n">
-        <v>75150</v>
+      <c r="I7" s="122" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="157" t="s">
+        <v>47</v>
       </c>
       <c r="K7" s="157" t="s">
         <v>47</v>
@@ -9056,11 +9056,11 @@
       <c r="H11" s="122" t="n">
         <v>44738</v>
       </c>
-      <c r="I11" s="157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="157" t="n">
-        <v>731</v>
+      <c r="I11" s="157" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="157" t="s">
+        <v>52</v>
       </c>
       <c r="K11" s="122" t="s">
         <v>52</v>
@@ -9586,7 +9586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="130" zoomScaleNormal="130">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="5"/>
@@ -9613,19 +9613,19 @@
     <col customWidth="1" max="17" min="17" style="146" width="9.140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="146" spans="1:19">
+    <row customHeight="1" ht="15.75" r="1" s="146" spans="1:18">
       <c r="A1" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="148" t="n"/>
       <c r="O1" s="222" t="n"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="C2" s="148" t="n"/>
       <c r="D2" s="148" t="n"/>
       <c r="E2" s="148" t="n"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="106" t="s">
         <v>57</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4" s="148" t="n"/>
       <c r="B4" s="125" t="s">
         <v>32</v>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="P4" s="111" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="22.5" r="5" s="82" spans="1:19">
+    <row customFormat="1" customHeight="1" ht="22.5" r="5" s="82" spans="1:18">
       <c r="A5" s="70" t="n"/>
       <c r="B5" s="112" t="s">
         <v>58</v>
@@ -9772,11 +9772,11 @@
         <v/>
       </c>
       <c r="I5" s="283">
-        <f>17291.41/(4097*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="J5" s="283">
-        <f>39963.7/(9534*748/1000)</f>
+        <f>31049.75/(6438*(748/1000))</f>
         <v/>
       </c>
       <c r="K5" s="283">
@@ -9798,7 +9798,7 @@
       <c r="O5" s="114" t="n"/>
       <c r="P5" s="112" t="n"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6" s="106" t="n"/>
       <c r="B6" s="106" t="n"/>
       <c r="C6" s="148" t="n"/>
@@ -9814,7 +9814,7 @@
       <c r="N6" s="178" t="n"/>
       <c r="O6" s="115" t="n"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7" s="125" t="s">
         <v>59</v>
       </c>
@@ -9835,7 +9835,7 @@
       <c r="N7" s="179" t="n"/>
       <c r="O7" s="224" t="n"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8" s="148" t="s">
         <v>61</v>
       </c>
@@ -9861,10 +9861,10 @@
         <v>149648.5999999978</v>
       </c>
       <c r="I8" s="137" t="n">
-        <v>176714</v>
+        <v>170863.2</v>
       </c>
       <c r="J8" s="224" t="n">
-        <v>308459</v>
+        <v>170863.2</v>
       </c>
       <c r="K8" s="213" t="n">
         <v>170863.2</v>
@@ -9883,7 +9883,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9" s="148" t="s">
         <v>63</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="148" t="n"/>
       <c r="B10" s="148" t="n"/>
       <c r="C10" s="175" t="n"/>
@@ -9961,7 +9961,7 @@
       <c r="O10" s="148" t="n"/>
       <c r="P10" s="148" t="n"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" s="87" t="n"/>
       <c r="B11" s="87" t="n"/>
       <c r="C11" s="87" t="n"/>
@@ -9978,7 +9978,7 @@
       <c r="N11" s="185" t="n"/>
       <c r="O11" s="118" t="n"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" s="148" t="s">
         <v>64</v>
       </c>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="R12" s="166" t="n"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" s="148" t="s">
         <v>40</v>
       </c>
@@ -10103,43 +10103,43 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="148" t="n"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="148" t="n"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="148" t="n"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="148" t="n"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19" s="45" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="148" t="n"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20" s="148" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="53" s="148" spans="1:19">
+    <row customFormat="1" r="53" s="148" spans="1:18">
       <c r="A53" s="148" t="n"/>
       <c r="B53" s="148" t="n"/>
       <c r="C53" s="148" t="n"/>
@@ -10156,7 +10156,7 @@
       <c r="N53" s="148" t="n"/>
       <c r="Q53" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="54" s="148" spans="1:19">
+    <row customFormat="1" r="54" s="148" spans="1:18">
       <c r="A54" s="148" t="n"/>
       <c r="B54" s="148" t="n"/>
       <c r="C54" s="148" t="n"/>
@@ -10173,7 +10173,7 @@
       <c r="N54" s="148" t="n"/>
       <c r="Q54" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="55" s="148" spans="1:19">
+    <row customFormat="1" r="55" s="148" spans="1:18">
       <c r="A55" s="148" t="n"/>
       <c r="B55" s="148" t="n"/>
       <c r="C55" s="148" t="n"/>
@@ -10190,7 +10190,7 @@
       <c r="N55" s="148" t="n"/>
       <c r="Q55" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="56" s="148" spans="1:19">
+    <row customFormat="1" r="56" s="148" spans="1:18">
       <c r="A56" s="148" t="n"/>
       <c r="B56" s="148" t="n"/>
       <c r="C56" s="148" t="n"/>
@@ -10207,7 +10207,7 @@
       <c r="N56" s="148" t="n"/>
       <c r="Q56" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="57" s="148" spans="1:19">
+    <row customFormat="1" r="57" s="148" spans="1:18">
       <c r="A57" s="148" t="n"/>
       <c r="B57" s="148" t="n"/>
       <c r="C57" s="148" t="n"/>
@@ -10224,7 +10224,7 @@
       <c r="N57" s="148" t="n"/>
       <c r="Q57" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="58" s="148" spans="1:19">
+    <row customFormat="1" r="58" s="148" spans="1:18">
       <c r="A58" s="148" t="n"/>
       <c r="B58" s="148" t="n"/>
       <c r="C58" s="148" t="n"/>
@@ -10241,7 +10241,7 @@
       <c r="N58" s="148" t="n"/>
       <c r="Q58" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="59" s="148" spans="1:19">
+    <row customFormat="1" r="59" s="148" spans="1:18">
       <c r="A59" s="148" t="n"/>
       <c r="B59" s="148" t="n"/>
       <c r="C59" s="148" t="n"/>
@@ -10258,7 +10258,7 @@
       <c r="N59" s="148" t="n"/>
       <c r="Q59" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="60" s="148" spans="1:19">
+    <row customFormat="1" r="60" s="148" spans="1:18">
       <c r="A60" s="148" t="n"/>
       <c r="B60" s="148" t="n"/>
       <c r="C60" s="148" t="n"/>
@@ -10275,7 +10275,7 @@
       <c r="N60" s="148" t="n"/>
       <c r="Q60" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="61" s="148" spans="1:19">
+    <row customFormat="1" r="61" s="148" spans="1:18">
       <c r="A61" s="148" t="n"/>
       <c r="B61" s="148" t="n"/>
       <c r="C61" s="148" t="n"/>
@@ -10292,7 +10292,7 @@
       <c r="N61" s="148" t="n"/>
       <c r="Q61" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="62" s="148" spans="1:19">
+    <row customFormat="1" r="62" s="148" spans="1:18">
       <c r="A62" s="148" t="n"/>
       <c r="B62" s="148" t="n"/>
       <c r="C62" s="148" t="n"/>
@@ -10309,7 +10309,7 @@
       <c r="N62" s="148" t="n"/>
       <c r="Q62" s="148" t="n"/>
     </row>
-    <row customFormat="1" r="64" s="141" spans="1:19">
+    <row customFormat="1" r="64" s="141" spans="1:18">
       <c r="A64" s="148" t="n"/>
       <c r="B64" s="148" t="n"/>
       <c r="C64" s="148" t="n"/>
@@ -10326,7 +10326,7 @@
       <c r="N64" s="148" t="n"/>
       <c r="Q64" s="119" t="n"/>
     </row>
-    <row customFormat="1" r="65" s="205" spans="1:19">
+    <row customFormat="1" r="65" s="205" spans="1:18">
       <c r="A65" s="148" t="n"/>
       <c r="B65" s="148" t="n"/>
       <c r="C65" s="148" t="n"/>
